--- a/biology/Histoire de la zoologie et de la botanique/Louis_Claude_Richard/Louis_Claude_Richard.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Louis_Claude_Richard/Louis_Claude_Richard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis Claude Marie Richard, né à Versailles le 19 septembre 1754 et mort à Paris le 6 juin 1821, est un botaniste français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille Richard se consacre depuis plusieurs générations à l’histoire naturelle. Ainsi son bisaïeul s’occupait de la ménagerie de Louis XIV, son grand-père, Claude Richard (1705-1784), s’occupait du jardin botanique du château de Trianon, sous la direction de Bernard de Jussieu (1699-1777). Afin d’enrichir le jardin, celui-ci correspond avec tous les grands botanistes de son époque comme Carl von Linné (1707-1778), Albrecht von Haller (1708-1777) ou Nikolaus Joseph von Jacquin (1727-1817). Son père, Claude Richard dirige le jardin que Louis XV a acquis en 1761 au village d'Auteuil. Son oncle, Antoine Richard (1734-1807), succède à son père. Louis-Claude fréquente ainsi Michel Adanson (1727-1806), botaniste du roi, et B. de Jussieu. Georges Cuvier (1769-1832) dira de lui qu’ « ainsi on peut dire de lui sans figure qu’il avait sucé la botanique avec le lait ; il ne se souvenait pas d’un moment de sa vie où il n’eût déjà été une sorte de botaniste ; et si jamais il fit d’autres études, ce fut toujours à la botanique qu’il les rapporta. »
 L’archevêque de Paris Monseigneur de Beaumont se prend d’intérêt pour le jeune Louis-Claude qui montre des talents précoces notamment pour le dessin. À douze ans, il connaissait par cœur les Géorgiques de Virgile. Mais l’enfant refuse la perspective d’entrer dans les ordres, sa seule volonté étant de devenir botaniste, devait-il demeurer simple jardinier. Ne pouvant infléchir ces résolutions, son père le met à la porte avec une très faible rente. Il avait quatorze ans.
@@ -550,13 +564,15 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Antoine I Richard (vers 1610-mort le 18 décembre 1675), marié à Louise Bonvalet[1],
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Antoine I Richard (vers 1610-mort le 18 décembre 1675), marié à Louise Bonvalet,
 Antoine II Richard, marié le 29 octobre 1669 à Saint-Germain-en-Laye avec Marie Cacheux (vers 1640-1722)
 Edmond Richard
 Claude I Richard (baptisé le 16 novembre 1671-1741), jardinier du chancelier d'Aligre et jardinier d’un riche jacobite anglais, le duc de Mar, établi à Saint-Germain-en-Laye, marié en 1699 avec Marie Moüet (décédée en 1741),
-Claude II Richard (13 août 1705 à Saint-Germain-en-Laye – 21 novembre 1784 à Versailles), horticulteur à Saint-Germain, chargé par Louis XV de la direction du jardin de la ménagerie de Trianon[2], marié avec Madeleine Jouan (1713-1766), 16 enfants, dont :
+Claude II Richard (13 août 1705 à Saint-Germain-en-Laye – 21 novembre 1784 à Versailles), horticulteur à Saint-Germain, chargé par Louis XV de la direction du jardin de la ménagerie de Trianon, marié avec Madeleine Jouan (1713-1766), 16 enfants, dont :
 Claude III Richard (1732-1799), chargé par Louis XV de la direction du jardin d'Auteuil, marié en 1752 en premières noces avec Marie Madeleine Crosnier, en 1781 en secondes noces avec Louise Julie Mouton, 16 enfants du premier mariage, dont :
 Louis Claude Richard (1754-1821)
 Achille Richard (1794-1852), marié avec Gabrielle Dorbe
@@ -594,7 +610,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Démonstrations botaniques ou analyse du fruit (1808)
 De Orchideis Europaeis Annotationes (1817) (Lire en ligne)
